--- a/MetadataDB_JR/D___Develop/MetaDataDB_JR.xlsx
+++ b/MetadataDB_JR/D___Develop/MetaDataDB_JR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="6975" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="6975" firstSheet="14" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <definedName name="ExternalData_1" localSheetId="22" hidden="1">'mapping element'!$A$1:$I$100</definedName>
     <definedName name="ExternalData_1" localSheetId="23" hidden="1">mappingset!$A$1:$I$2</definedName>
     <definedName name="ExternalData_1" localSheetId="24" hidden="1">MappingSetMapping!$A$1:$H$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="26" hidden="1">parameter!$A$1:$H$15</definedName>
+    <definedName name="ExternalData_1" localSheetId="26" hidden="1">parameter!$A$1:$H$17</definedName>
     <definedName name="ExternalData_1" localSheetId="27" hidden="1">SourceChangeType!$A$1:$I$4</definedName>
     <definedName name="ExternalData_1" localSheetId="28" hidden="1">SourceChangeTypeOverride!$A$1:$H$2</definedName>
     <definedName name="ExternalData_1" localSheetId="31" hidden="1">StagingElement!$A$1:$M$2</definedName>
@@ -107,7 +107,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="22">'mapping element'!$A$1:$I$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="23">mappingset!$A$1:$I$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="24">MappingSetMapping!$A$1:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="26">parameter!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">parameter!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="27">SourceChangeType!$A$1:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="28">SourceChangeTypeOverride!$A$1:$H$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="31">StagingElement!$A$1:$M$2</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7921" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7933" uniqueCount="1885">
   <si>
     <t>Use SQL Debug:</t>
   </si>
@@ -5858,6 +5858,24 @@
   </si>
   <si>
     <t>SalesPerson.function2</t>
+  </si>
+  <si>
+    <t>DWReference_ModelDB</t>
+  </si>
+  <si>
+    <t>DWJRReference_Model</t>
+  </si>
+  <si>
+    <t>This is the datbase that will be used in the USE Database statement for deployment of the DWReference Control Records</t>
+  </si>
+  <si>
+    <t>DWReference_TargetDB</t>
+  </si>
+  <si>
+    <t>This is the name of the active DWReference Database</t>
+  </si>
+  <si>
+    <t>DWJRReference</t>
   </si>
 </sst>
 </file>
@@ -6287,30 +6305,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
@@ -6386,6 +6380,18 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
@@ -6396,6 +6402,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -7093,9 +7111,9 @@
     <tableColumn id="21" uniqueName="21" name="DWObjectImplementation" queryTableFieldId="8"/>
     <tableColumn id="22" uniqueName="22" name="IncludeInBuild" queryTableFieldId="9"/>
     <tableColumn id="23" uniqueName="23" name="CreatedBy" queryTableFieldId="10"/>
-    <tableColumn id="24" uniqueName="24" name="CreatedDateTime" queryTableFieldId="11" dataDxfId="54"/>
+    <tableColumn id="24" uniqueName="24" name="CreatedDateTime" queryTableFieldId="11" dataDxfId="91"/>
     <tableColumn id="25" uniqueName="25" name="UpdatedBy" queryTableFieldId="12"/>
-    <tableColumn id="26" uniqueName="26" name="UpdatedDateTime" queryTableFieldId="13" dataDxfId="53"/>
+    <tableColumn id="26" uniqueName="26" name="UpdatedDateTime" queryTableFieldId="13" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7118,9 +7136,9 @@
     <tableColumn id="30" uniqueName="30" name="ErrorOnInvalidBusinessKey" queryTableFieldId="11"/>
     <tableColumn id="31" uniqueName="31" name="ErrorOnMissingBusinessKey" queryTableFieldId="12"/>
     <tableColumn id="32" uniqueName="32" name="CreatedBy" queryTableFieldId="13"/>
-    <tableColumn id="33" uniqueName="33" name="CreatedDateTime" queryTableFieldId="14" dataDxfId="56"/>
+    <tableColumn id="33" uniqueName="33" name="CreatedDateTime" queryTableFieldId="14" dataDxfId="89"/>
     <tableColumn id="34" uniqueName="34" name="UpdatedBy" queryTableFieldId="15"/>
-    <tableColumn id="35" uniqueName="35" name="UpdatedDateTime" queryTableFieldId="16" dataDxfId="55"/>
+    <tableColumn id="35" uniqueName="35" name="UpdatedDateTime" queryTableFieldId="16" dataDxfId="88"/>
     <tableColumn id="36" uniqueName="36" name="DefaultTypeID" queryTableFieldId="17"/>
     <tableColumn id="37" uniqueName="37" name="BespokeDefaultLogic" queryTableFieldId="18"/>
     <tableColumn id="38" uniqueName="38" name="SnapshotProcessSeperator" queryTableFieldId="19"/>
@@ -7140,9 +7158,9 @@
     <tableColumn id="15" uniqueName="15" name="IncludeInBuild" queryTableFieldId="5"/>
     <tableColumn id="16" uniqueName="16" name="DimMissingStringReplacement" queryTableFieldId="6"/>
     <tableColumn id="17" uniqueName="17" name="CreatedBy" queryTableFieldId="7"/>
-    <tableColumn id="18" uniqueName="18" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="91"/>
+    <tableColumn id="18" uniqueName="18" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="87"/>
     <tableColumn id="19" uniqueName="19" name="UpdatedBy" queryTableFieldId="9"/>
-    <tableColumn id="20" uniqueName="20" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="90"/>
+    <tableColumn id="20" uniqueName="20" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7156,9 +7174,9 @@
     <tableColumn id="9" uniqueName="9" name="DWElementID" queryTableFieldId="2"/>
     <tableColumn id="10" uniqueName="10" name="DataMartID" queryTableFieldId="3"/>
     <tableColumn id="11" uniqueName="11" name="CreatedBy" queryTableFieldId="4"/>
-    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="89"/>
+    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="85"/>
     <tableColumn id="13" uniqueName="13" name="UpdatedBy" queryTableFieldId="6"/>
-    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="88"/>
+    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7172,9 +7190,9 @@
     <tableColumn id="9" uniqueName="9" name="FrequencyID" queryTableFieldId="2"/>
     <tableColumn id="10" uniqueName="10" name="Frequency" queryTableFieldId="3"/>
     <tableColumn id="11" uniqueName="11" name="CreatedBy" queryTableFieldId="4"/>
-    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="87"/>
+    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="83"/>
     <tableColumn id="13" uniqueName="13" name="UpdatedBy" queryTableFieldId="6"/>
-    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="86"/>
+    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7188,9 +7206,9 @@
     <tableColumn id="9" uniqueName="9" name="DeleteTypeID" queryTableFieldId="2"/>
     <tableColumn id="10" uniqueName="10" name="DeleteType" queryTableFieldId="3"/>
     <tableColumn id="11" uniqueName="11" name="CreatedBy" queryTableFieldId="4"/>
-    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="85"/>
+    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="81"/>
     <tableColumn id="13" uniqueName="13" name="UpdatedBy" queryTableFieldId="6"/>
-    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="84"/>
+    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7224,9 +7242,9 @@
     <tableColumn id="49" uniqueName="49" name="FlatFileHasFooter" queryTableFieldId="22"/>
     <tableColumn id="50" uniqueName="50" name="DateFormatTypeID" queryTableFieldId="23"/>
     <tableColumn id="51" uniqueName="51" name="CreatedBy" queryTableFieldId="24"/>
-    <tableColumn id="52" uniqueName="52" name="CreatedDateTime" queryTableFieldId="25" dataDxfId="60"/>
+    <tableColumn id="52" uniqueName="52" name="CreatedDateTime" queryTableFieldId="25" dataDxfId="79"/>
     <tableColumn id="53" uniqueName="53" name="UpdatedBy" queryTableFieldId="26"/>
-    <tableColumn id="54" uniqueName="54" name="UpdatedDateTime" queryTableFieldId="27" dataDxfId="59"/>
+    <tableColumn id="54" uniqueName="54" name="UpdatedDateTime" queryTableFieldId="27" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7242,9 +7260,9 @@
     <tableColumn id="13" uniqueName="13" name="TargetElementID" queryTableFieldId="4"/>
     <tableColumn id="14" uniqueName="14" name="MappingComments" queryTableFieldId="5"/>
     <tableColumn id="15" uniqueName="15" name="CreatedBy" queryTableFieldId="6"/>
-    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="58"/>
+    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="77"/>
     <tableColumn id="17" uniqueName="17" name="UpdatedBy" queryTableFieldId="8"/>
-    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="57"/>
+    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7260,9 +7278,9 @@
     <tableColumn id="13" uniqueName="13" name="MappingSetSource" queryTableFieldId="4"/>
     <tableColumn id="14" uniqueName="14" name="MappingSetTarget" queryTableFieldId="5"/>
     <tableColumn id="15" uniqueName="15" name="CreatedBy" queryTableFieldId="6"/>
-    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="83"/>
+    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="75"/>
     <tableColumn id="17" uniqueName="17" name="UpdatedBy" queryTableFieldId="8"/>
-    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="82"/>
+    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7294,9 +7312,9 @@
     <tableColumn id="11" uniqueName="11" name="MappingID" queryTableFieldId="3"/>
     <tableColumn id="12" uniqueName="12" name="BuildOrder" queryTableFieldId="4"/>
     <tableColumn id="13" uniqueName="13" name="CreatedBy" queryTableFieldId="5"/>
-    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="81"/>
+    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="73"/>
     <tableColumn id="15" uniqueName="15" name="UpdatedBy" queryTableFieldId="7"/>
-    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="80"/>
+    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7313,26 +7331,26 @@
     <tableColumn id="15" uniqueName="15" name="SourceConnectionID" queryTableFieldId="5"/>
     <tableColumn id="16" uniqueName="16" name="IncludeInBuild" queryTableFieldId="6"/>
     <tableColumn id="17" uniqueName="17" name="CreatedBy" queryTableFieldId="7"/>
-    <tableColumn id="18" uniqueName="18" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="79"/>
+    <tableColumn id="18" uniqueName="18" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="71"/>
     <tableColumn id="19" uniqueName="19" name="UpdatedBy" queryTableFieldId="9"/>
-    <tableColumn id="20" uniqueName="20" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="78"/>
+    <tableColumn id="20" uniqueName="20" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Sheet6_Table1" displayName="Sheet6_Table1" ref="A1:H15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Sheet6_Table1" displayName="Sheet6_Table1" ref="A1:H17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H17"/>
   <tableColumns count="8">
     <tableColumn id="9" uniqueName="9" name="_RowNum" queryTableFieldId="1"/>
     <tableColumn id="10" uniqueName="10" name="ParameterName" queryTableFieldId="2"/>
     <tableColumn id="11" uniqueName="11" name="ParameterValue" queryTableFieldId="3"/>
     <tableColumn id="12" uniqueName="12" name="ParameterDesc" queryTableFieldId="4"/>
     <tableColumn id="13" uniqueName="13" name="CreatedBy" queryTableFieldId="5"/>
-    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="77"/>
+    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="54"/>
     <tableColumn id="15" uniqueName="15" name="UpdatedBy" queryTableFieldId="7"/>
-    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="76"/>
+    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7348,9 +7366,9 @@
     <tableColumn id="13" uniqueName="13" name="VariablesRequired" queryTableFieldId="4"/>
     <tableColumn id="14" uniqueName="14" name="WindowSize" queryTableFieldId="5"/>
     <tableColumn id="15" uniqueName="15" name="CreatedBy" queryTableFieldId="6"/>
-    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="62"/>
+    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="7" dataDxfId="69"/>
     <tableColumn id="17" uniqueName="17" name="UpdatedBy" queryTableFieldId="8"/>
-    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="61"/>
+    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="9" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7365,9 +7383,9 @@
     <tableColumn id="11" uniqueName="11" name="DomainDataTypeID" queryTableFieldId="3"/>
     <tableColumn id="12" uniqueName="12" name="OverrideDataType" queryTableFieldId="4"/>
     <tableColumn id="13" uniqueName="13" name="UpdatedBy" queryTableFieldId="5"/>
-    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="6" dataDxfId="75"/>
+    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="6" dataDxfId="67"/>
     <tableColumn id="15" uniqueName="15" name="CreatedBy" queryTableFieldId="7"/>
-    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="74"/>
+    <tableColumn id="16" uniqueName="16" name="CreatedDateTime" queryTableFieldId="8" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7384,9 +7402,9 @@
     <tableColumn id="15" uniqueName="15" name="StagingOwnderPrefix" queryTableFieldId="5"/>
     <tableColumn id="16" uniqueName="16" name="OwnerType" queryTableFieldId="6"/>
     <tableColumn id="17" uniqueName="17" name="UpdatedBy" queryTableFieldId="7"/>
-    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="73"/>
+    <tableColumn id="18" uniqueName="18" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="65"/>
     <tableColumn id="19" uniqueName="19" name="CreatedBy" queryTableFieldId="9"/>
-    <tableColumn id="20" uniqueName="20" name="CreatedDateTime" queryTableFieldId="10" dataDxfId="72"/>
+    <tableColumn id="20" uniqueName="20" name="CreatedDateTime" queryTableFieldId="10" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7405,9 +7423,9 @@
     <tableColumn id="19" uniqueName="19" name="ProcessDeletes" queryTableFieldId="7"/>
     <tableColumn id="20" uniqueName="20" name="StagingObjectTypeID" queryTableFieldId="8"/>
     <tableColumn id="21" uniqueName="21" name="UpdatedBy" queryTableFieldId="9"/>
-    <tableColumn id="22" uniqueName="22" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="71"/>
+    <tableColumn id="22" uniqueName="22" name="UpdatedDateTime" queryTableFieldId="10" dataDxfId="63"/>
     <tableColumn id="23" uniqueName="23" name="CreatedBy" queryTableFieldId="11"/>
-    <tableColumn id="24" uniqueName="24" name="CreatedDateTime" queryTableFieldId="12" dataDxfId="70"/>
+    <tableColumn id="24" uniqueName="24" name="CreatedDateTime" queryTableFieldId="12" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7427,9 +7445,9 @@
     <tableColumn id="21" uniqueName="21" name="IsMandatory" queryTableFieldId="8"/>
     <tableColumn id="22" uniqueName="22" name="DomainDataTypeID" queryTableFieldId="9"/>
     <tableColumn id="23" uniqueName="23" name="UpdatedBy" queryTableFieldId="10"/>
-    <tableColumn id="24" uniqueName="24" name="UpdatedDateTime" queryTableFieldId="11" dataDxfId="69"/>
+    <tableColumn id="24" uniqueName="24" name="UpdatedDateTime" queryTableFieldId="11" dataDxfId="61"/>
     <tableColumn id="25" uniqueName="25" name="CreatedBy" queryTableFieldId="12"/>
-    <tableColumn id="26" uniqueName="26" name="CreatedDateTime" queryTableFieldId="13" dataDxfId="68"/>
+    <tableColumn id="26" uniqueName="26" name="CreatedDateTime" queryTableFieldId="13" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7444,9 +7462,9 @@
     <tableColumn id="11" uniqueName="11" name="StagingObjectType" queryTableFieldId="3"/>
     <tableColumn id="12" uniqueName="12" name="MappingRequired" queryTableFieldId="4"/>
     <tableColumn id="13" uniqueName="13" name="CreatedBy" queryTableFieldId="5"/>
-    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="67"/>
+    <tableColumn id="14" uniqueName="14" name="CreatedDateTime" queryTableFieldId="6" dataDxfId="59"/>
     <tableColumn id="15" uniqueName="15" name="UpdatedBy" queryTableFieldId="7"/>
-    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="66"/>
+    <tableColumn id="16" uniqueName="16" name="UpdatedDateTime" queryTableFieldId="8" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7458,7 +7476,7 @@
   <tableColumns count="5">
     <tableColumn id="6" uniqueName="6" name="_RowNum" queryTableFieldId="1"/>
     <tableColumn id="7" uniqueName="7" name="SuiteName" queryTableFieldId="2"/>
-    <tableColumn id="8" uniqueName="8" name="MaxExeceptedExecutionDuration" queryTableFieldId="3" dataDxfId="65"/>
+    <tableColumn id="8" uniqueName="8" name="MaxExeceptedExecutionDuration" queryTableFieldId="3" dataDxfId="57"/>
     <tableColumn id="9" uniqueName="9" name="SuiteExecutionOrder" queryTableFieldId="4"/>
     <tableColumn id="10" uniqueName="10" name="Comment" queryTableFieldId="5"/>
   </tableColumns>
@@ -7491,9 +7509,9 @@
     <tableColumn id="9" uniqueName="9" name="TargetTypeID" queryTableFieldId="2"/>
     <tableColumn id="10" uniqueName="10" name="TargetType" queryTableFieldId="3"/>
     <tableColumn id="11" uniqueName="11" name="CreatedBy" queryTableFieldId="4"/>
-    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="64"/>
+    <tableColumn id="12" uniqueName="12" name="CreatedDateTime" queryTableFieldId="5" dataDxfId="56"/>
     <tableColumn id="13" uniqueName="13" name="UpdatedBy" queryTableFieldId="6"/>
-    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="63"/>
+    <tableColumn id="14" uniqueName="14" name="UpdatedDateTime" queryTableFieldId="7" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10174,7 +10192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+    <sheetView topLeftCell="F3" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -20188,17 +20206,17 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -20359,7 +20377,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="3">
-        <v>42569.637720949075</v>
+        <v>42572.486815277778</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -20437,7 +20455,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="3">
-        <v>42569.636289733797</v>
+        <v>42572.486815277778</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -20463,7 +20481,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="3">
-        <v>42569.639486655091</v>
+        <v>42572.486815277778</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -20596,23 +20614,75 @@
         <v>42569.689849456016</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42572.396480208336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42572.396480208336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42572.396480208336</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42572.486815277778</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>ISBLANK(B2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(40) datatype." sqref="B2:B15">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(40) datatype." sqref="B2:B17">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(4000) datatype." sqref="D2:D15">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(4000) datatype." sqref="D2:D17">
       <formula1>4000</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(100) datatype." sqref="G2:G15 E2:E15">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(100) datatype." sqref="G2:G17 E2:E17">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the datetime datatype." sqref="H2:H15 F2:F15">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the datetime datatype." sqref="H2:H17 F2:F17">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -42244,11 +42314,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C466"/>
+  <dimension ref="A1:C468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A440" sqref="A440:B465"/>
+      <selection pane="bottomLeft" activeCell="A452" sqref="A452:B467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43299,16 +43369,20 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>968</v>
+        <v>1011</v>
       </c>
       <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>284</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>933</v>
+        <v>289</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -43316,2848 +43390,2860 @@
         <v>0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>939</v>
+        <v>996</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
         <v>1</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>2</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>3</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>4</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>5</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>6</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>7</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>8</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>9</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>10</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>11</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>12</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>13</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>969</v>
-      </c>
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>284</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>0</v>
-      </c>
       <c r="B160" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1012</v>
+        <v>1741</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1742</v>
+      </c>
+      <c r="B162" s="6"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>284</v>
       </c>
-      <c r="B163" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B166" s="6"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B167" s="6"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>284</v>
       </c>
-      <c r="B166" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="B168" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>840</v>
+      </c>
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>284</v>
       </c>
-      <c r="B169" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>284</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>284</v>
+      <c r="B174" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>0</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>39</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1444</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B178" s="6"/>
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B179" s="6"/>
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>284</v>
+      <c r="A180">
+        <v>5</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>779</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>1142</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>572</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B183" s="6"/>
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>1507</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B184" s="6"/>
+      <c r="A184">
+        <v>9</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>1783</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>284</v>
+      <c r="A185">
+        <v>10</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>971</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>976</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1446</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>1814</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B189" s="6"/>
+      <c r="A189">
+        <v>14</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>840</v>
-      </c>
-      <c r="B190" s="6"/>
+      <c r="A190">
+        <v>15</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>284</v>
+      <c r="A191">
+        <v>16</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>774</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
+        <v>17</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>18</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>841</v>
+      </c>
+      <c r="B194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>861</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>284</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
         <v>0</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B197" s="6" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="C197" s="6" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
         <v>1</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B198" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>2</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="C199" s="6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>3</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="C201" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>6</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>4</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="C204" s="6" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>9</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>10</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>5</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>6</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>7</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>9</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>10</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="C207" s="6" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
         <v>11</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>12</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>13</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>14</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>15</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>16</v>
-      </c>
       <c r="B208" s="6" t="s">
-        <v>1520</v>
+        <v>1495</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>1521</v>
+        <v>1495</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>1524</v>
+        <v>1507</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>841</v>
-      </c>
-      <c r="B211" s="6"/>
+      <c r="A211">
+        <v>14</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>861</v>
-      </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
+      <c r="A212">
+        <v>15</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>284</v>
+      <c r="A213">
+        <v>16</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>774</v>
+        <v>1501</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>844</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>1471</v>
+        <v>1501</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1228</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>1471</v>
+        <v>1501</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1259</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1262</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1265</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1295</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1298</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1301</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>1491</v>
+        <v>1783</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1306</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>1491</v>
+        <v>1783</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1307</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>1491</v>
+        <v>1520</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1310</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>1495</v>
+        <v>1520</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1754</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1759</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1760</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1507</v>
+        <v>1804</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1270</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>1507</v>
+        <v>1804</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1274</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1345</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1346</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1347</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1504</v>
+        <v>1803</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1361</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>1504</v>
+        <v>1803</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1362</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1498</v>
+        <v>1803</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1354</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1498</v>
+        <v>1819</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1355</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1498</v>
+        <v>1819</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1356</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>1783</v>
+        <v>1819</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1778</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1783</v>
+        <v>1819</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1780</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>1520</v>
+        <v>1819</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1337</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1520</v>
+        <v>1819</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1338</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1510</v>
+        <v>1819</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1277</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1510</v>
+        <v>1819</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1280</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1510</v>
+        <v>1819</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1283</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1804</v>
+        <v>1819</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1534</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1804</v>
+        <v>1819</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1537</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1524</v>
+        <v>1819</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1792</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1524</v>
+        <v>1819</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1797</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1524</v>
+        <v>1819</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1798</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1803</v>
+        <v>1819</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1803</v>
+        <v>1819</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1803</v>
+        <v>1819</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1543</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1546</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1548</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1550</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1611</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1597</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1607</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1616</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1604</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1613</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1625</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1627</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1605</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>1819</v>
+        <v>1516</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>1598</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>1819</v>
+        <v>1516</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1628</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>1819</v>
+        <v>1516</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1631</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>1819</v>
+        <v>1521</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1601</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>1819</v>
+        <v>1521</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1636</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>1819</v>
+        <v>1521</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1637</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1819</v>
+        <v>1521</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1599</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1630</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1608</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1635</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>1609</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>1612</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>1610</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1621</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>1819</v>
+        <v>1513</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>1620</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <v>82</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>1619</v>
-      </c>
+      <c r="A296" t="s">
+        <v>862</v>
+      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <v>83</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>1615</v>
-      </c>
+      <c r="A297" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B297" s="6"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>84</v>
+      <c r="A298" t="s">
+        <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>1289</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>1292</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>1371</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>1372</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>1374</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C305" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>7</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>8</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>9</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>10</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>11</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>12</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>13</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>14</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>15</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>16</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>17</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>18</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>19</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <v>92</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C306" s="6" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>20</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <v>93</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C307" s="6" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>21</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>1327</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
-        <v>94</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
-        <v>95</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310">
-        <v>96</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
-        <v>97</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>98</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>862</v>
-      </c>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>284</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
-        <v>0</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318">
-        <v>2</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319">
-        <v>3</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320">
-        <v>4</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>1270</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>1274</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1277</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1280</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>1286</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>1289</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1292</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>1295</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>1298</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1301</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>1306</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>1307</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>1310</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1325</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1326</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1327</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1328</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1329</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1330</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>1331</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1332</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1337</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1338</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>1345</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1346</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>1347</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1354</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>1355</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1356</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1361</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1362</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1371</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1372</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>1373</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1374</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>1611</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1603</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1634</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1597</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>1614</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1607</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1602</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1616</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1415</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1416</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1417</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1418</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1419</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1420</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1421</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1422</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1423</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1424</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1425</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>1426</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1427</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1429</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1430</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>1432</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1433</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1434</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1435</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>1604</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1613</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1625</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1627</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1632</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1618</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1617</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1605</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1598</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1628</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1601</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1636</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>1599</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>1608</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1635</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>1609</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1612</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>1610</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1534</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>1537</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1543</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>1546</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420">
-        <v>104</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>1548</v>
-      </c>
+      <c r="A420" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B420" s="6"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421">
-        <v>105</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>1550</v>
-      </c>
+      <c r="A421" t="s">
+        <v>640</v>
+      </c>
+      <c r="B421" s="6"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422">
-        <v>106</v>
+      <c r="A422" t="s">
+        <v>284</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1620</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1619</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1615</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1640</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>1638</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1639</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1754</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1759</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1760</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1778</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1780</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1792</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1797</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1798</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B437" s="6"/>
+      <c r="A437">
+        <v>14</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>640</v>
-      </c>
-      <c r="B438" s="6"/>
+      <c r="A438">
+        <v>15</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>284</v>
+      <c r="A439">
+        <v>16</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>609</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1160</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1165</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1380</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>1168</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1171</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>1174</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1177</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>1180</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1183</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449">
-        <v>9</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>1186</v>
-      </c>
+      <c r="A449" t="s">
+        <v>641</v>
+      </c>
+      <c r="B449" s="6"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450">
-        <v>10</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>1189</v>
-      </c>
+      <c r="A450" t="s">
+        <v>968</v>
+      </c>
+      <c r="B450" s="6"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451">
-        <v>11</v>
+      <c r="A451" t="s">
+        <v>284</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>1192</v>
+        <v>933</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>1195</v>
+        <v>939</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>1203</v>
+        <v>938</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1207</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>1210</v>
+        <v>940</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>1213</v>
+        <v>941</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>1216</v>
+        <v>942</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1528</v>
+        <v>943</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>1531</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1198</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1200</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>1219</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1222</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>1225</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>641</v>
-      </c>
-      <c r="B466" s="6"/>
+      <c r="A466">
+        <v>14</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>15</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>969</v>
+      </c>
+      <c r="B468" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A440:B465">
-    <sortCondition ref="A439:A465"/>
+  <sortState ref="A452:B467">
+    <sortCondition ref="A451:A467"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MetadataDB_JR/D___Develop/MetaDataDB_JR.xlsx
+++ b/MetadataDB_JR/D___Develop/MetaDataDB_JR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="6975" firstSheet="14" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="6975" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <definedName name="ExternalData_1" localSheetId="22" hidden="1">'mapping element'!$A$1:$I$100</definedName>
     <definedName name="ExternalData_1" localSheetId="23" hidden="1">mappingset!$A$1:$I$2</definedName>
     <definedName name="ExternalData_1" localSheetId="24" hidden="1">MappingSetMapping!$A$1:$H$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="26" hidden="1">parameter!$A$1:$H$17</definedName>
+    <definedName name="ExternalData_1" localSheetId="26" hidden="1">parameter!$A$1:$H$30</definedName>
     <definedName name="ExternalData_1" localSheetId="27" hidden="1">SourceChangeType!$A$1:$I$4</definedName>
     <definedName name="ExternalData_1" localSheetId="28" hidden="1">SourceChangeTypeOverride!$A$1:$H$2</definedName>
     <definedName name="ExternalData_1" localSheetId="31" hidden="1">StagingElement!$A$1:$M$2</definedName>
@@ -107,7 +107,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="22">'mapping element'!$A$1:$I$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="23">mappingset!$A$1:$I$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="24">MappingSetMapping!$A$1:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="26">parameter!$A$1:$H$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">parameter!$A$1:$H$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="27">SourceChangeType!$A$1:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="28">SourceChangeTypeOverride!$A$1:$H$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="31">StagingElement!$A$1:$M$2</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7933" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8011" uniqueCount="1917">
   <si>
     <t>Use SQL Debug:</t>
   </si>
@@ -5876,6 +5876,102 @@
   </si>
   <si>
     <t>DWJRReference</t>
+  </si>
+  <si>
+    <t>DWData_Size_DataFile_DEV</t>
+  </si>
+  <si>
+    <t>DWData_Size_LogFile_DEV</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>This is the size of the data file when DWData is created in DEV</t>
+  </si>
+  <si>
+    <t>This is the size of the log file when DWData is created in DEV</t>
+  </si>
+  <si>
+    <t>DeltaSelectList</t>
+  </si>
+  <si>
+    <t>{Delta-SelectList}</t>
+  </si>
+  <si>
+    <t>This tag will be the place holder in any SQL code for the insertion of the delta logic as part of the Select (i.e. "Delta AS LastChangeTime")</t>
+  </si>
+  <si>
+    <t>DeltaDateRange</t>
+  </si>
+  <si>
+    <t>{Delta-DateRange}</t>
+  </si>
+  <si>
+    <t>This tag will be the place holder in any SQL code fot he insertion of the delta logic as part of an existing WHERE clause (i.e. " AND Delta Between @starttime and @endTime")</t>
+  </si>
+  <si>
+    <t>DeltaWhereClauseDateRange</t>
+  </si>
+  <si>
+    <t>{Delta-WhereClauseDateRange}</t>
+  </si>
+  <si>
+    <t>This tag will be the place holder in any SQL code for the insertion of the delta logic where there is no existing WHERE clause (i.e. " WHERE Delta Between @starttime and @endTime")</t>
+  </si>
+  <si>
+    <t>DWStaging_Size_DataFile_DEV</t>
+  </si>
+  <si>
+    <t>DWStaging_Size_LogFile_DEV</t>
+  </si>
+  <si>
+    <t>This is the size of the data file when DWStaging is created in DEV</t>
+  </si>
+  <si>
+    <t>This is the size of the log file when DWStaging is created in DEV</t>
+  </si>
+  <si>
+    <t>DWExtract_Size_DataFile_DEV</t>
+  </si>
+  <si>
+    <t>DWExtract_Size_LogFile_DEV</t>
+  </si>
+  <si>
+    <t>This is the size of the data file when DWExtract is created in DEV</t>
+  </si>
+  <si>
+    <t>This is the size of the log file when DWExtract is created in DEV</t>
+  </si>
+  <si>
+    <t>DWData_ActualDB</t>
+  </si>
+  <si>
+    <t>This is the datbase that will be used in the USE Database statement for deployment of the DWData database objects when the environment is 'DEV', 'UAT', 'PROD'</t>
+  </si>
+  <si>
+    <t>DWExtract_ActualDB</t>
+  </si>
+  <si>
+    <t>DWJRExtract</t>
+  </si>
+  <si>
+    <t>This is the datbase that will be used in the USE Database statement for deployment of the DWExtract database objects when the environment is  'DEV', 'UAT', 'PROD'</t>
+  </si>
+  <si>
+    <t>CompressionType_DEV</t>
+  </si>
+  <si>
+    <t>This flag indicates whether tables are Page Compressed (Page), Row Compressed (Row) or Uncompressed (None) in DEV</t>
+  </si>
+  <si>
+    <t>EnableForeignKeys_DEV</t>
+  </si>
+  <si>
+    <t>This setting will determine whether foreign keys are enabled between facts and dimensions in DEV</t>
+  </si>
+  <si>
+    <t>1GB</t>
   </si>
 </sst>
 </file>
@@ -7340,8 +7436,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Sheet6_Table1" displayName="Sheet6_Table1" ref="A1:H17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Sheet6_Table1" displayName="Sheet6_Table1" ref="A1:H30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H30"/>
   <tableColumns count="8">
     <tableColumn id="9" uniqueName="9" name="_RowNum" queryTableFieldId="1"/>
     <tableColumn id="10" uniqueName="10" name="ParameterName" queryTableFieldId="2"/>
@@ -20206,10 +20302,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D19:D20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20403,7 +20499,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="3">
-        <v>42515.458418634262</v>
+        <v>42573.460055057869</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -20533,7 +20629,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="3">
-        <v>42569.637720949075</v>
+        <v>42573.460055474534</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -20666,23 +20762,361 @@
         <v>42572.486815277778</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42573.454970868057</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42573.460055474534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42573.454970983796</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3">
+        <v>42573.460055474534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3">
+        <v>42573.454970983796</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42573.454970983796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42573.454970983796</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3">
+        <v>42573.454970983796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42573.454970983796</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="3">
+        <v>42573.454970983796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3">
+        <v>42573.455998530095</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3">
+        <v>42573.460055474534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C24" t="s">
+        <v>966</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42573.455998530095</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42573.460055520831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3">
+        <v>42573.456770370372</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3">
+        <v>42573.460055520831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3">
+        <v>42573.456770370372</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="3">
+        <v>42573.460055520831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3">
+        <v>42573.457511377317</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="3">
+        <v>42573.457511377317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3">
+        <v>42573.457511377317</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="3">
+        <v>42573.457511377317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C29" t="s">
+        <v>963</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3">
+        <v>42573.458223113426</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="3">
+        <v>42573.458223113426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C30" t="s">
+        <v>964</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="3">
+        <v>42573.458223113426</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="3">
+        <v>42573.458223113426</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B17">
+  <conditionalFormatting sqref="B2:B30">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>ISBLANK(B2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(40) datatype." sqref="B2:B17">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(40) datatype." sqref="B2:B30">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(4000) datatype." sqref="D2:D17">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(4000) datatype." sqref="D2:D30">
       <formula1>4000</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(100) datatype." sqref="G2:G17 E2:E17">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the varchar(100) datatype." sqref="G2:G30 E2:E30">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the datetime datatype." sqref="H2:H17 F2:F17">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datatype Control" error="The column requires values of the datetime datatype." sqref="H2:H30 F2:F30">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -42314,11 +42748,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C468"/>
+  <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A452" sqref="A452:B467"/>
+      <selection pane="bottomLeft" activeCell="A452" sqref="A452:B480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46236,14 +46670,118 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
+      <c r="A468">
+        <v>16</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>17</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>18</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>19</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>20</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>21</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>22</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>23</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>24</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>25</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>26</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>27</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>28</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
         <v>969</v>
       </c>
-      <c r="B468" s="6"/>
+      <c r="B481" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A452:B467">
-    <sortCondition ref="A451:A467"/>
+  <sortState ref="A452:B480">
+    <sortCondition ref="A451:A480"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
